--- a/ParamSettingHelper.xlsx
+++ b/ParamSettingHelper.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
   <si>
     <t>Item</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,193 +35,189 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>fileName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Superconductivty.mat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MiningProcess.mat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TripDuration.mat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subDataNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lambda</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subAttrNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>learningRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>initBias</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iteration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Superconductivty.mat</t>
+  </si>
+  <si>
+    <t>check</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoFed serves only 1 participant.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VRL-MP serve at least 2 participants.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testBlockId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sampleBlockNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testBlockId should not be more than sampleBlockNum.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>partyNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attrBlockNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>partyNum is not more than attrBlockNum.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Is the parameter setting legal?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The name of the file of the dataset in the folder "in" or "dist\in". The datasets we provide by default are Superconductivty, MiningProcess and TripDuration.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lambda parameter of ridge regression.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The dataset we used is divided into "sampleBlockNum" blocks averagely</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The test set selected is the "testBlockId"-th block.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The size of the sub data set used in the experiment. If the subDataNum= - 1, it means that the complete dataset is used for the experiment.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The features of dataset are divided into "attrBlockNum" blocks averagely.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The number of participants.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The size of the sub features used in the experiment. If the subAttrNum= - 1, it means that all features are used for the experiment.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only for VRG. The learning rate of VRG algorithm.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only for VRG. If VRG algorithm cannot find better model parameters for successive "iteration" times, the algorithm stops.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only for VRG. The scale of the initial random model parameter w0 of VRG algorithm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please copy the following generated parameters or the command line directly to execute our program. Thanks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JavaCmdConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java commands and related settings. Please make sure that the Java version is Java 1.8.0 because our implementation is based on Java 1.8.0_131.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The parameter settings need to follow some rules to ensure that our program executes correctly. For more details, please see the ParameterRuleTesting page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoFed</t>
+  </si>
+  <si>
+    <t>GeneratedParamJson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GeneratedCmdLine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CVRG</t>
+  </si>
+  <si>
+    <t>VRG, CVRG and VRL-2P serve only 2 participants.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The algorithm used in your experiment. The optional parameters are NoFed, VRG, CVRG, VRL_ 2p and VRL_ MP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>VRG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>VRL_2P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>VRL_MP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fileName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Superconductivty.mat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MiningProcess.mat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TripDuration.mat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>subDataNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lambda</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>subAttrNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NoFed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>learningRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>initBias</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iteration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Superconductivty.mat</t>
-  </si>
-  <si>
-    <t>check</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NoFed serves only 1 participant.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VRG and VRL-2P serve only 2 participants.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VRL-MP serve at least 2 participants.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testBlockId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sampleBlockNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testBlockId should not be more than sampleBlockNum.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>partyNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attrBlockNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>partyNum is not more than attrBlockNum.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Is the parameter setting legal?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rule</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The algorithm used in your experiment. The optional parameters are NoFed, VRG, VRL_ 2p and VRL_ MP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The name of the file of the dataset in the folder "in" or "dist\in". The datasets we provide by default are Superconductivty, MiningProcess and TripDuration.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lambda parameter of ridge regression.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The dataset we used is divided into "sampleBlockNum" blocks averagely</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The test set selected is the "testBlockId"-th block.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The size of the sub data set used in the experiment. If the subDataNum= - 1, it means that the complete dataset is used for the experiment.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The features of dataset are divided into "attrBlockNum" blocks averagely.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The number of participants.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The size of the sub features used in the experiment. If the subAttrNum= - 1, it means that all features are used for the experiment.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Only for VRG. The learning rate of VRG algorithm.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Only for VRG. If VRG algorithm cannot find better model parameters for successive "iteration" times, the algorithm stops.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Only for VRG. The scale of the initial random model parameter w0 of VRG algorithm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Please copy the following generated parameters or the command line directly to execute our program. Thanks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JavaCmdConfig</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Java commands and related settings. Please make sure that the Java version is Java 1.8.0 because our implementation is based on Java 1.8.0_131.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The parameter settings need to follow some rules to ensure that our program executes correctly. For more details, please see the ParameterRuleTesting page</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NoFed</t>
-  </si>
-  <si>
-    <t>java -Xms14576m -Xmx14576m -Xmn8480m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GeneratedParamJson</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GeneratedCmdLine</t>
+  </si>
+  <si>
+    <t>"D:\MyJupyter1.0 full-win64\Java8\bin\java.exe" -Xms14576m -Xmx14576m -Xmn8480m</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -380,75 +376,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="13">
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -626,6 +567,61 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -659,9 +655,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:C14" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="A1:C14"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Item" dataDxfId="0"/>
-    <tableColumn id="2" name="Value" dataDxfId="1"/>
-    <tableColumn id="3" name="Description" dataDxfId="10"/>
+    <tableColumn id="1" name="Item" dataDxfId="10"/>
+    <tableColumn id="2" name="Value" dataDxfId="9"/>
+    <tableColumn id="3" name="Description" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -670,8 +666,8 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表4" displayName="表4" ref="A18:B19" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="2">
-    <tableColumn id="1" name="列1" headerRowDxfId="9" dataDxfId="8"/>
-    <tableColumn id="2" name="列2" headerRowDxfId="7" dataDxfId="6">
+    <tableColumn id="1" name="列1" headerRowDxfId="7" dataDxfId="6"/>
+    <tableColumn id="2" name="列2" headerRowDxfId="5" dataDxfId="4">
       <calculatedColumnFormula>"java -jar VFL4RRExp.jar " &amp; B18</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -680,11 +676,11 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:B6" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:B6" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <autoFilter ref="A1:B6"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Rule" dataDxfId="3"/>
-    <tableColumn id="2" name="check" dataDxfId="2"/>
+    <tableColumn id="1" name="Rule" dataDxfId="1"/>
+    <tableColumn id="2" name="check" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -955,8 +951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -974,186 +970,186 @@
         <v>1</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
-        <v>6</v>
+      <c r="A3" s="14" t="s">
+        <v>3</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
-        <v>11</v>
+      <c r="A4" s="14" t="s">
+        <v>8</v>
       </c>
       <c r="B4" s="10">
         <v>10</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
-        <v>23</v>
+      <c r="A5" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="B5" s="9">
         <v>5</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
-        <v>22</v>
+      <c r="A6" s="14" t="s">
+        <v>17</v>
       </c>
       <c r="B6" s="9">
         <v>1</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
-        <v>10</v>
+      <c r="A7" s="14" t="s">
+        <v>7</v>
       </c>
       <c r="B7" s="9">
         <v>1000</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
-        <v>26</v>
+      <c r="A8" s="14" t="s">
+        <v>21</v>
       </c>
       <c r="B8" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
-        <v>25</v>
+      <c r="A9" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="B9" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
-        <v>12</v>
+      <c r="A10" s="14" t="s">
+        <v>9</v>
       </c>
       <c r="B10" s="9">
         <v>-1</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
-        <v>14</v>
+      <c r="A11" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="B11" s="9">
         <v>1</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
-        <v>15</v>
+      <c r="A12" s="14" t="s">
+        <v>11</v>
       </c>
       <c r="B12" s="9">
         <v>1</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="15" t="s">
-        <v>16</v>
+      <c r="A13" s="14" t="s">
+        <v>12</v>
       </c>
       <c r="B13" s="9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A14" s="15" t="s">
-        <v>44</v>
+      <c r="A14" s="14" t="s">
+        <v>38</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:3" s="3" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="16" t="s">
-        <v>28</v>
+      <c r="A15" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="B15" s="6" t="b">
         <f>COUNTIF(ParameterRuleTesting!B2:B22,"FALSE")=0</f>
         <v>1</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="14"/>
+      <c r="A17" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="16"/>
     </row>
     <row r="18" spans="1:2" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B18" s="2" t="str">
-        <f>IF($B$15,"""{'algorithm':'" &amp; $B$2 &amp; "','data': {'fileName': '" &amp; $B$3 &amp; "','X': 'XData_norm','Y': 'yData'"&amp; IF($B$2="VRG",",'learningRate': " &amp;B11 &amp; ",'initBias': " &amp; B12,"") &amp; "},'lambda':" &amp; $B$4 &amp; ",'parties': {'partyNum':" &amp; $B$9 &amp; ",'attrBlockNum':" &amp; $B$8 &amp; "},'subAttrNum':" &amp; $B$10 &amp; ",'sampleInfo': {'sampleBlockNum':" &amp; $B$5 &amp; ",'testBlockId':" &amp; $B$6 &amp; "},'subDataNum':" &amp; $B$7 &amp; IF($B$2="VRG",",'iteration':" &amp; $B$13,"") &amp; "}""","! Parameter Setting illegal, details to see Sheet 'ParameterRuleTesting'")</f>
-        <v>"{'algorithm':'NoFed','data': {'fileName': 'Superconductivty.mat','X': 'XData_norm','Y': 'yData'},'lambda':10,'parties': {'partyNum':1,'attrBlockNum':1},'subAttrNum':-1,'sampleInfo': {'sampleBlockNum':5,'testBlockId':1},'subDataNum':1000}"</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="60" x14ac:dyDescent="0.2">
+        <f>IF($B$15,"""{'algorithm':'" &amp; $B$2 &amp; "','data': {'fileName': '" &amp; $B$3 &amp; "','X': 'XData_norm','Y': 'yData'"&amp; IF(OR($B$2="VRG",$B$2="CVRG"),",'learningRate': " &amp;B11 &amp; ",'initBias': " &amp; B12,"") &amp; "},'lambda':" &amp; $B$4 &amp; ",'parties': {'partyNum':" &amp; $B$9 &amp; ",'attrBlockNum':" &amp; $B$8 &amp; "},'subAttrNum':" &amp; $B$10 &amp; ",'sampleInfo': {'sampleBlockNum':" &amp; $B$5 &amp; ",'testBlockId':" &amp; $B$6 &amp; "},'subDataNum':" &amp; $B$7 &amp; IF(OR($B$2="VRG",$B$2="CVRG"),",'iteration':" &amp; $B$13,"") &amp; "}""","! Parameter Setting illegal, details to see Sheet 'ParameterRuleTesting'")</f>
+        <v>"{'algorithm':'VRG','data': {'fileName': 'Superconductivty.mat','X': 'XData_norm','Y': 'yData','learningRate': 1,'initBias': 1},'lambda':10,'parties': {'partyNum':2,'attrBlockNum':2},'subAttrNum':-1,'sampleInfo': {'sampleBlockNum':5,'testBlockId':1},'subDataNum':1000,'iteration':5}"</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B19" s="2" t="str">
         <f>IF($B$15,$B$14 &amp; " -jar VFL4RRExp.jar " &amp; $B$18,"! Parameter Setting illegal, details to see Sheet 'ParameterRuleTesting'")</f>
-        <v>java -Xms14576m -Xmx14576m -Xmn8480m -jar VFL4RRExp.jar "{'algorithm':'NoFed','data': {'fileName': 'Superconductivty.mat','X': 'XData_norm','Y': 'yData'},'lambda':10,'parties': {'partyNum':1,'attrBlockNum':1},'subAttrNum':-1,'sampleInfo': {'sampleBlockNum':5,'testBlockId':1},'subDataNum':1000}"</v>
+        <v>"D:\MyJupyter1.0 full-win64\Java8\bin\java.exe" -Xms14576m -Xmx14576m -Xmn8480m -jar VFL4RRExp.jar "{'algorithm':'VRG','data': {'fileName': 'Superconductivty.mat','X': 'XData_norm','Y': 'yData','learningRate': 1,'initBias': 1},'lambda':10,'parties': {'partyNum':2,'attrBlockNum':2},'subAttrNum':-1,'sampleInfo': {'sampleBlockNum':5,'testBlockId':1},'subDataNum':1000,'iteration':5}"</v>
       </c>
     </row>
   </sheetData>
@@ -1207,7 +1203,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1218,15 +1214,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B2" s="4" t="b">
         <f>IF(Generator!$B$2="NoFed",IF(Generator!$B$9=1,TRUE,FALSE),TRUE)</f>
@@ -1235,16 +1231,16 @@
     </row>
     <row r="3" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="B3" s="4" t="b">
-        <f>IF(OR(Generator!$B$2="VRG",Generator!$B$2="VRL_2P"),IF(Generator!$B$9=2,TRUE,FALSE),TRUE)</f>
+        <f>IF(OR(Generator!$B$2="VRG",Generator!$B$2="CVRG",Generator!$B$2="VRL_2P"),IF(Generator!$B$9=2,TRUE,FALSE),TRUE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B4" s="4" t="b">
         <f>IF(Generator!$B$2="VRL_MP",IF(Generator!$B$9&gt;=2,TRUE,FALSE),TRUE)</f>
@@ -1253,7 +1249,7 @@
     </row>
     <row r="5" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B5" s="4" t="b">
         <f>Generator!$B$6&lt;=Generator!$B$5</f>
@@ -1262,7 +1258,7 @@
     </row>
     <row r="6" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B6" s="4" t="b">
         <f>Generator!$B$9&lt;=Generator!$B$8</f>
@@ -1281,45 +1277,50 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="14.375" customWidth="1"/>
+    <col min="3" max="3" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/ParamSettingHelper.xlsx
+++ b/ParamSettingHelper.xlsx
@@ -217,7 +217,7 @@
     <t>VRL_MP</t>
   </si>
   <si>
-    <t>"D:\MyJupyter1.0 full-win64\Java8\bin\java.exe" -Xms14576m -Xmx14576m -Xmn8480m</t>
+    <t>java -Xms14576m -Xmx14576m -Xmn8480m</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -941,7 +941,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -952,7 +952,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="B19" s="2" t="str">
         <f>IF($B$15,$B$14 &amp; " -jar VFL4RRExp.jar " &amp; $B$18,"! Parameter Setting illegal, details to see Sheet 'ParameterRuleTesting'")</f>
-        <v>"D:\MyJupyter1.0 full-win64\Java8\bin\java.exe" -Xms14576m -Xmx14576m -Xmn8480m -jar VFL4RRExp.jar "{'algorithm':'VRG','data': {'fileName': 'Superconductivty.mat','X': 'XData_norm','Y': 'yData','learningRate': 1,'initBias': 1},'lambda':10,'parties': {'partyNum':2,'attrBlockNum':2},'subAttrNum':-1,'sampleInfo': {'sampleBlockNum':5,'testBlockId':1},'subDataNum':1000,'iteration':5}"</v>
+        <v>java -Xms14576m -Xmx14576m -Xmn8480m -jar VFL4RRExp.jar "{'algorithm':'VRG','data': {'fileName': 'Superconductivty.mat','X': 'XData_norm','Y': 'yData','learningRate': 1,'initBias': 1},'lambda':10,'parties': {'partyNum':2,'attrBlockNum':2},'subAttrNum':-1,'sampleInfo': {'sampleBlockNum':5,'testBlockId':1},'subDataNum':1000,'iteration':5}"</v>
       </c>
     </row>
   </sheetData>
